--- a/src/main/Mitarbeiterdaten/Neuanlage Krankenversicherungsbeitraege.xlsx
+++ b/src/main/Mitarbeiterdaten/Neuanlage Krankenversicherungsbeitraege.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\Mitarbeiterdaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56784E2D-8398-4F88-A66B-9F3650E4ADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EF7CA-3E41-4BBD-AAD7-0A1FF981BF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>Beitragsbemessungsgrenze GKV West</t>
   </si>
   <si>
-    <t>Mitarbeitertyp</t>
-  </si>
-  <si>
-    <t>Angestellter</t>
+    <t>Eintragungsdatum</t>
+  </si>
+  <si>
+    <t>15.12.2023</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
